--- a/src/database/Estados.xlsx
+++ b/src/database/Estados.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Conecta\Projetos\certificados\src\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF4AB06C-C09B-48E7-9A43-88918F4C7663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293CBAD0-3CB5-45CD-8B26-5046E1B5E5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8CA68A8D-6391-4D9F-85D8-97AB635C490C}"/>
+    <workbookView xWindow="-4620" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{8CA68A8D-6391-4D9F-85D8-97AB635C490C}"/>
   </bookViews>
   <sheets>
     <sheet name="Estados" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t>Distrito Federal</t>
   </si>
@@ -204,6 +204,27 @@
   </si>
   <si>
     <t>SIGLA</t>
+  </si>
+  <si>
+    <t>Sudeste</t>
+  </si>
+  <si>
+    <t>Sul</t>
+  </si>
+  <si>
+    <t>Centro Oeste</t>
+  </si>
+  <si>
+    <t>Nordeste</t>
+  </si>
+  <si>
+    <t>Norte</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Região</t>
   </si>
 </sst>
 </file>
@@ -238,17 +259,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Work Sans"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -345,11 +389,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2C44F15-F738-4245-8473-7EA26DBB4DA4}" name="Tabela5" displayName="Tabela5" ref="A1:B28" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:B28" xr:uid="{B844A41D-A698-48A3-8D14-EB2C9A501A4D}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7D6E2795-6B28-416C-8283-B3F9DF4F4578}" name="SIGLA" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{78596D2A-740C-403C-9A98-170441BBC533}" name="ESTADOS" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2C44F15-F738-4245-8473-7EA26DBB4DA4}" name="Tabela5" displayName="Tabela5" ref="A1:C29" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C29" xr:uid="{B844A41D-A698-48A3-8D14-EB2C9A501A4D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C29">
+    <sortCondition ref="C1:C29"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{7D6E2795-6B28-416C-8283-B3F9DF4F4578}" name="SIGLA" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{78596D2A-740C-403C-9A98-170441BBC533}" name="ESTADOS" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{C18CA34F-D897-4D96-A062-EE1489CCAD00}" name="Região" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -672,237 +720,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2E3C3B-121E-49A9-876B-016F64D4D52C}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B28"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C15" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="C17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B22" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="C22" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B23" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="C23" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B24" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
